--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\GitHub_AlienHacky\Zeitblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">I/O Pins geprüft zwischen CC2650 und Senor Hub, Bild erstellt, wie Pins angepasst werden müssen. Konkret I2C  muss anders liegen, wenn Analog kein interrupt hat muss der Lichtsensor Pin umgelegt werden.  Stecker gesucht und flachbandkabel! </t>
+  </si>
+  <si>
+    <t>13.30 - 16.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation für Design </t>
+  </si>
+  <si>
+    <t>16.30- 17.30</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -476,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42645</v>
@@ -570,7 +579,7 @@
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42656</v>
@@ -582,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42657</v>
@@ -594,27 +603,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42658</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42659</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42661</v>
@@ -626,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42662</v>
@@ -638,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42663</v>
@@ -650,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42664</v>
@@ -662,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42665</v>
@@ -674,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42666</v>
@@ -686,14 +695,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42668</v>
@@ -705,28 +714,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42669</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42670</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42671</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42672</v>
@@ -757,7 +777,7 @@
       </c>
       <c r="B36" s="8">
         <f>SUM(B5:B34)</f>
-        <v>31.7</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Documents\Eigene Daten\#Master_3\S1_Kopplung\GitHub_AlienHacky\Zeitblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t xml:space="preserve">I2C Beispiel geschrieben, gibt fehler beim start der Transaction </t>
+  </si>
+  <si>
+    <t>Teile gesucht um ein prototyp für das Pinmapping zubauen, wie auch nach lesen, prüfen was nicht stimmt</t>
+  </si>
+  <si>
+    <t>Löten der Platine, Kabelbruch im Kabel festgestellt somit alternative überlegt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umlöte, da kein Flachbandkabel verwendet wurde, Test gemacht ohne erfolg bekomme beim Transceive immer 0 zurück </t>
+  </si>
+  <si>
+    <t>zweiten Prototyp gelötet, die Prototyp fertig gestellt. Idee für befestigung des CC265o mit kleinen adapter Platinen als gummi laschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test mit cc2650 i2c zum laufen zu bringen, Recherche in tests ohne erfolg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test mit tiva c und cc2650 am osziloskop, CC2650 vermutlich hw fehler </t>
   </si>
 </sst>
 </file>
@@ -437,7 +455,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,12 +701,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -703,71 +726,95 @@
         <v>42669</v>
       </c>
       <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42670</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42671</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42672</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42673</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
       <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="8">
         <f>SUM(B5:B34)</f>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -80,22 +80,28 @@
     <t xml:space="preserve">CC2650 in betrieb genommen, TI RTOS eingelesen, </t>
   </si>
   <si>
+    <t xml:space="preserve">CC2650 I2C Beispiel laufen lassen, nun spinnt der debugger </t>
+  </si>
+  <si>
     <t xml:space="preserve">I2C Beispiel geschrieben, gibt fehler beim start der Transaction </t>
   </si>
   <si>
-    <t xml:space="preserve">CC2650 I2C Beispiel laufen lassen, nun spinnt der debugger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O Pins geprüft zwischen CC2650 und Senor Hub, Bild erstellt, wie Pins angepasst werden müssen. Konkret I2C  muss anders liegen, wenn Analog kein interrupt hat muss der Lichtsensor Pin umgelegt werden.  Stecker gesucht und flachbandkabel! </t>
-  </si>
-  <si>
-    <t>13.30 - 16.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Präsentation für Design </t>
-  </si>
-  <si>
-    <t>16.30- 17.30</t>
+    <t>Teile gesucht um ein prototyp für das Pinmapping zubauen, wie auch nach lesen, prüfen was nicht stimmt</t>
+  </si>
+  <si>
+    <t>Löten der Platine, Kabelbruch im Kabel festgestellt somit alternative überlegt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umlöte, da kein Flachbandkabel verwendet wurde, Test gemacht ohne erfolg bekomme beim Transceive immer 0 zurück </t>
+  </si>
+  <si>
+    <t>zweiten Prototyp gelötet, die Prototyp fertig gestellt. Idee für befestigung des CC265o mit kleinen adapter Platinen als gummi laschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test mit cc2650 i2c zum laufen zu bringen, Recherche in tests ohne erfolg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test mit tiva c und cc2650 am osziloskop, CC2650 vermutlich hw fehler </t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42657</v>
@@ -603,27 +609,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42658</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42659</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42661</v>
@@ -635,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42662</v>
@@ -647,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42663</v>
@@ -659,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42664</v>
@@ -671,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42665</v>
@@ -680,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42666</v>
@@ -692,110 +698,123 @@
         <v>1.5</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42668</v>
       </c>
-      <c r="B28" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42669</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>42670</v>
+      </c>
+      <c r="B30" s="6">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>42671</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>42672</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>42673</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>42670</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>42671</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>42672</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>42673</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
       <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="8">
         <f>SUM(B5:B34)</f>
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test mit tiva c und cc2650 am osziloskop, CC2650 vermutlich hw fehler </t>
+  </si>
+  <si>
+    <t>Zigbee4Java</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -827,7 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -860,12 +868,21 @@
         <f>A4+1</f>
         <v>42676</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>42677</v>
       </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1041,7 +1058,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -107,7 +107,10 @@
     <t>Zigbee4Java</t>
   </si>
   <si>
-    <t>d</t>
+    <t>i2C und RF messung meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c lib für gyro </t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,9 @@
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>42677</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -888,6 +894,12 @@
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42678</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1070,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>1</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -110,7 +110,16 @@
     <t>i2C und RF messung meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">i2c lib für gyro </t>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>Gyro Anpassungen</t>
+  </si>
+  <si>
+    <t>i2c Lichtsensor lib geschrieben</t>
+  </si>
+  <si>
+    <t>oszi i2c, gefunden das slave adresse um 1 bit verschoben wird</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -836,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -887,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +908,7 @@
         <v>2.5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,6 +940,12 @@
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -956,97 +971,109 @@
         <v>42687</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42689</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42690</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42691</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42692</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42693</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42694</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42696</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42697</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42698</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42699</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42700</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42701</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42703</v>
@@ -1070,7 +1097,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>8.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>oszi i2c, gefunden das slave adresse um 1 bit verschoben wird</t>
+  </si>
+  <si>
+    <t>Gyro weiter gemacht</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1009,12 @@
         <f t="shared" si="0"/>
         <v>42691</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1097,7 +1106,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_AlienHacky\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Gyro weiter gemacht</t>
+  </si>
+  <si>
+    <t>Gyro Lib erweitert / fehler noch drin</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,11 +1048,23 @@
         <f t="shared" si="0"/>
         <v>42696</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42697</v>
+      </c>
+      <c r="B26">
+        <v>1.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,7 +1121,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>21</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Gyro Lib erweitert / fehler noch drin</t>
+  </si>
+  <si>
+    <t>Gyro Lib erweitert / fehler noch drin, meeting</t>
   </si>
 </sst>
 </file>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,10 +1064,10 @@
         <v>42697</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1124,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Gyro Lib erweitert / fehler noch drin, meeting</t>
+  </si>
+  <si>
+    <t>Gyro und umrechnung vorbereitet, Code aufgeräumt im test Projekt, tagebuch , prototypen fertig gestellt,</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1096,12 @@
         <f t="shared" si="0"/>
         <v>42701</v>
       </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1124,7 +1133,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">Test mit tiva c und cc2650 am osziloskop, CC2650 vermutlich hw fehler </t>
   </si>
   <si>
-    <t>Zigbee4Java</t>
-  </si>
-  <si>
     <t>i2C und RF messung meeting</t>
   </si>
   <si>
@@ -128,10 +125,16 @@
     <t>Gyro Lib erweitert / fehler noch drin</t>
   </si>
   <si>
-    <t>Gyro Lib erweitert / fehler noch drin, meeting</t>
-  </si>
-  <si>
     <t>Gyro und umrechnung vorbereitet, Code aufgeräumt im test Projekt, tagebuch , prototypen fertig gestellt,</t>
+  </si>
+  <si>
+    <t>Teammeeting, Thomas fehlersuchen geholfen bei der queue (referenze) fehler, gyro pointer fehler beseitigt</t>
+  </si>
+  <si>
+    <t>meeting Gyro Lib erweitert / fehler noch drin, meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigbee4Java mit Marcel und Ursus </t>
   </si>
 </sst>
 </file>
@@ -857,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
         <v>2.5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1013,7 @@
         <v>2.5</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1073,7 @@
         <v>2.5</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,29 +1118,36 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>29.5</v>
+        <v>33.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zigbee4Java mit Marcel und Ursus </t>
+  </si>
+  <si>
+    <t>Gyro Zeitmessung eingebaut,mit Ursus architektur von bridge/server besprochen</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,8 +831,8 @@
         <v>3</v>
       </c>
       <c r="B36" s="8">
-        <f>SUM(B5:B34)</f>
-        <v>42.7</v>
+        <f>SUM(B4:B34)</f>
+        <v>44.7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1182,6 +1187,12 @@
       <c r="A4" s="1">
         <v>42705</v>
       </c>
+      <c r="B4">
+        <v>2.75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1371,8 +1382,8 @@
         <v>3</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <f>SUM(B4:B34)</f>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="28260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Gyro Zeitmessung eingebaut,mit Ursus architektur von bridge/server besprochen</t>
+  </si>
+  <si>
+    <t>Mirgation vom Sensor in Node, umrechnung in Weltkoordinaten eingebaut, teammeeting</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1158,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1202,12 @@
         <f>A4+1</f>
         <v>42706</v>
       </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1383,7 +1392,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Mirgation vom Sensor in Node, umrechnung in Weltkoordinaten eingebaut, teammeeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler gesucht wieso der Gyro in Node Branche nicht geht aber in dem Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migration in Node, code aufgeräumt umgeschrieben </t>
+  </si>
+  <si>
+    <t>Filter vom Lichtsensor grob getestet, Fest gestellt das vom Gyro keine Werte mehr erhalten werden. System_prints nicht gehen in dem Projekt nach lösung gesucht</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1171,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1214,12 +1223,24 @@
         <f t="shared" ref="A6:A34" si="0">A5+1</f>
         <v>42707</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42708</v>
       </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1231,6 +1252,12 @@
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42710</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,7 +1419,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>5.25</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -143,13 +143,19 @@
     <t>Mirgation vom Sensor in Node, umrechnung in Weltkoordinaten eingebaut, teammeeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Fehler gesucht wieso der Gyro in Node Branche nicht geht aber in dem Test </t>
-  </si>
-  <si>
     <t xml:space="preserve">Migration in Node, code aufgeräumt umgeschrieben </t>
   </si>
   <si>
     <t>Filter vom Lichtsensor grob getestet, Fest gestellt das vom Gyro keine Werte mehr erhalten werden. System_prints nicht gehen in dem Projekt nach lösung gesucht</t>
+  </si>
+  <si>
+    <t>Fehler gesucht wieso der Gyro in Node Branche nicht geht aber in dem Test</t>
+  </si>
+  <si>
+    <t>Metting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metting um server zu besprechen Spielfeld im Server begonnen, IntelliJ installliert eingerichtet </t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -1179,12 +1185,12 @@
     <col min="3" max="3" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42705</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42706</v>
@@ -1218,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A34" si="0">A5+1</f>
         <v>42707</v>
@@ -1227,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42708</v>
@@ -1239,64 +1245,76 @@
         <v>2.5</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>42710</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>42710</v>
-      </c>
-      <c r="B9">
-        <v>2.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42711</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42712</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42713</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42714</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42715</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42717</v>
@@ -1419,7 +1437,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>12.25</v>
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Dezember" sheetId="3" r:id="rId3"/>
     <sheet name="Jänner" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Metting um server zu besprechen Spielfeld im Server begonnen, IntelliJ installliert eingerichtet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spielfeld erweitert, Logik eingebaut, dort ist noch frage offen wie wir die grenzen ermitteln </t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1292,12 @@
         <f t="shared" si="0"/>
         <v>42712</v>
       </c>
+      <c r="B11">
+        <v>1.45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1437,7 +1446,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>16.25</v>
+        <v>17.7</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spielfeld erweitert, Logik eingebaut, dort ist noch frage offen wie wir die grenzen ermitteln </t>
+  </si>
+  <si>
+    <t>Spielfeld erweitert</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1307,12 @@
         <f t="shared" si="0"/>
         <v>42713</v>
       </c>
+      <c r="B12">
+        <v>2.15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1446,7 +1455,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>17.7</v>
+        <v>19.849999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Jim Frey.xlsx
+++ b/Zeitblaetter/Jim Frey.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Spielfeld erweitert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teammeeting, weiterarbeiten am Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architektur und Node besprochen </t>
   </si>
 </sst>
 </file>
@@ -1325,6 +1331,12 @@
         <f t="shared" si="0"/>
         <v>42715</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1338,97 +1350,103 @@
         <v>42717</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42718</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42719</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42720</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42721</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42722</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42724</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42725</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42726</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42727</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42728</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42729</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42731</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42732</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42733</v>
@@ -1455,7 +1473,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>19.849999999999998</v>
+        <v>23.349999999999998</v>
       </c>
     </row>
   </sheetData>
